--- a/menu/menu.xlsx
+++ b/menu/menu.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6880" firstSheet="12" activeTab="19" xr2:uid="{193E89D6-565F-4FAB-8C1D-EB5998943976}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6880" firstSheet="14" activeTab="22" xr2:uid="{193E89D6-565F-4FAB-8C1D-EB5998943976}"/>
   </bookViews>
   <sheets>
     <sheet name="50lan" sheetId="6" r:id="rId1"/>
@@ -32,6 +32,9 @@
     <sheet name="blossoming" sheetId="19" r:id="rId18"/>
     <sheet name="tenren" sheetId="20" r:id="rId19"/>
     <sheet name="bog" sheetId="21" r:id="rId20"/>
+    <sheet name="010tea" sheetId="22" r:id="rId21"/>
+    <sheet name="gongcha" sheetId="23" r:id="rId22"/>
+    <sheet name="teaplus" sheetId="24" r:id="rId23"/>
   </sheets>
   <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
@@ -43,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3854" uniqueCount="1017">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4526" uniqueCount="1174">
   <si>
     <t>原鄉四季</t>
   </si>
@@ -4078,6 +4081,634 @@
   </si>
   <si>
     <t>綜合新味</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圓石禪飲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原始禪飲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>檸檬水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烘焙麥茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>復刻紅茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格雷紅茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文山翠玉青</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台灣高山烏龍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷泉玉露</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台灣國民茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>復刻仙草茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台灣蕎麥綠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑豆養生茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法式水果茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台灣三貢茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南瓜養生露</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原創禪飲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麒麟冬瓜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱雀紅茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄武烏龍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青龍抹茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白虎巧克力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>風味現煮茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>檸檬香茅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京都宇治煎茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鐵觀音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洋甘菊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薰衣草</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>濃純鮮奶茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>復刻奶茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格雷奶茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>探陪烏龍乃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茉香奶綠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日式抹茶奶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉露奶茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑豆奶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台灣蕎麥奶綠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低指巧克力奶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京都奶茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>綠珍杏仁茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洋甘菊奶茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薰衣草奶茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圓石奶茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>復刻咖啡奶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>貢茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酷夏東西軍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>珍奶星冰沙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藍莓果漾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藍莓果綠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星球崛起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星球鮮奶茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶蓋星旋風</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQ星百香</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招牌貢茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶蓋綠茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶蓋紅茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶蓋青茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶蓋烏龍茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶蓋黑糖烏龍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶蓋黑森林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶蓋黑旋風</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鮮沖茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>琥珀鐵觀音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白鷺紅茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>東方美人茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金萱烏龍茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日式玄米綠茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>貢茶碧螺春</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熱M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烏龍茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拿鐵咖啡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶蓋咖啡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手工咖啡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健康嚐鮮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQ百香綠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鮮百香綠茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鮮柚綠茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰冰樂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密梅番茄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芒果戀奶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堅果可可冰沙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>創意特調</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔓越莓紅茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛神花茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒天愛玉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>檸檬冬瓜小紫蘇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桔香梅綠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桑葚美人醋飲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶香精選</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香濃奶茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香濃青茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香濃綠茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太妃奶茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>港式鴛鴦奶茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫米紅豆奶茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香濃鮮奶茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香濃鮮青茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香濃鮮綠茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烏龍鮮奶茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦糖鮮奶茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太妃鮮奶茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鮮草凍鮮奶茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巧克力鮮奶茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宇治抹茶歐雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水巷茶弄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鮮茶香茗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>糖心蜜紅茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英式伯爵紅茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>糖心蜜烏龍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬瓜青</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬瓜烏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桔香冰梅綠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莓果綠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莓果紅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百香綠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>醇品奶香</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經典奶茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英式伯爵奶茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相思逗珍奶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桂圓紅棗奶茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>獨家特調</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爵士巧克力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曼特寧咖啡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>膠原愛玉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>膠原愛玉小紫蘇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒天愛玉小紫蘇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜜檸小紫蘇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桔香小紫蘇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百果小紫蘇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莓果冰茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>膠原莓果綠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜂蜜青梅醋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘆薈蘋果醋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛋糕奶茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原味蛋糕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紅豆蛋糕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>珍珠蛋糕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巧克力蛋糕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拿鐵鮮奶系列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英式伯爵拿鐵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桂圓紅棗拿鐵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薑母拿鐵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紅豆抹茶拿鐵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紅豆沙鮮奶露</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芋頭鮮奶露</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>養生益氣系列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仙楂洛神梅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鮮榨原汁系列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸彈檸檬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑糖桔茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>檸檬綠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>檸檬蜂蜜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>檸檬蜂蜜蘆薈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜂蜜葡萄柚</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4153,7 +4784,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4179,6 +4810,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -18708,7 +19343,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D077A82C-C8B4-4149-AACD-C0D979893723}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F49" sqref="A2:F49"/>
     </sheetView>
   </sheetViews>
@@ -19686,6 +20321,4127 @@
         <v>976</v>
       </c>
       <c r="F49" s="5" t="s">
+        <v>976</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1580000-0E36-45B6-AD41-6B416AA722CB}">
+  <dimension ref="A1:F47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="14.7265625" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="8.7265625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>30</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>30</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2">
+        <v>35</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2">
+        <v>35</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2">
+        <v>35</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2">
+        <v>35</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B9" s="2">
+        <v>20</v>
+      </c>
+      <c r="C9" s="2">
+        <v>25</v>
+      </c>
+      <c r="D9" s="2">
+        <v>45</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B10" s="2">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2">
+        <v>25</v>
+      </c>
+      <c r="D10" s="2">
+        <v>45</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B11" s="2">
+        <v>20</v>
+      </c>
+      <c r="C11" s="2">
+        <v>25</v>
+      </c>
+      <c r="D11" s="2">
+        <v>45</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B12" s="2">
+        <v>25</v>
+      </c>
+      <c r="C12" s="2">
+        <v>30</v>
+      </c>
+      <c r="D12" s="2">
+        <v>55</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B13" s="2">
+        <v>25</v>
+      </c>
+      <c r="C13" s="2">
+        <v>30</v>
+      </c>
+      <c r="D13" s="2">
+        <v>55</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B14" s="2">
+        <v>25</v>
+      </c>
+      <c r="C14" s="2">
+        <v>30</v>
+      </c>
+      <c r="D14" s="2">
+        <v>55</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B15" s="2">
+        <v>30</v>
+      </c>
+      <c r="C15" s="2">
+        <v>35</v>
+      </c>
+      <c r="D15" s="2">
+        <v>65</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B16" s="2">
+        <v>30</v>
+      </c>
+      <c r="C16" s="2">
+        <v>35</v>
+      </c>
+      <c r="D16" s="2">
+        <v>65</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A17" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B17" s="2">
+        <v>35</v>
+      </c>
+      <c r="C17" s="2">
+        <v>45</v>
+      </c>
+      <c r="D17" s="2">
+        <v>75</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A18" s="2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A19" s="2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B19" s="2">
+        <v>35</v>
+      </c>
+      <c r="C19" s="2">
+        <v>50</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A20" s="2" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B20" s="2">
+        <v>40</v>
+      </c>
+      <c r="C20" s="2">
+        <v>55</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A21" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B21" s="2">
+        <v>40</v>
+      </c>
+      <c r="C21" s="2">
+        <v>55</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A22" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B22" s="2">
+        <v>45</v>
+      </c>
+      <c r="C22" s="2">
+        <v>60</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A23" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B23" s="2">
+        <v>50</v>
+      </c>
+      <c r="C23" s="2">
+        <v>65</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A24" s="2" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A25" s="2" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B25" s="2">
+        <v>30</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0</v>
+      </c>
+      <c r="D25" s="2">
+        <v>60</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A26" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B26" s="2">
+        <v>30</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0</v>
+      </c>
+      <c r="D26" s="2">
+        <v>60</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A27" s="2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B27" s="2">
+        <v>30</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2">
+        <v>60</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A28" s="2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B28" s="2">
+        <v>35</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0</v>
+      </c>
+      <c r="D28" s="2">
+        <v>70</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A29" s="2" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B29" s="2">
+        <v>35</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0</v>
+      </c>
+      <c r="D29" s="2">
+        <v>70</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A30" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A31" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B31" s="2">
+        <v>35</v>
+      </c>
+      <c r="C31" s="2">
+        <v>50</v>
+      </c>
+      <c r="D31" s="2">
+        <v>70</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A32" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B32" s="2">
+        <v>35</v>
+      </c>
+      <c r="C32" s="2">
+        <v>50</v>
+      </c>
+      <c r="D32" s="2">
+        <v>70</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A33" s="2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B33" s="2">
+        <v>35</v>
+      </c>
+      <c r="C33" s="2">
+        <v>50</v>
+      </c>
+      <c r="D33" s="2">
+        <v>70</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A34" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B34" s="2">
+        <v>35</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0</v>
+      </c>
+      <c r="D34" s="2">
+        <v>70</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A35" s="2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B35" s="2">
+        <v>40</v>
+      </c>
+      <c r="C35" s="2">
+        <v>55</v>
+      </c>
+      <c r="D35" s="2">
+        <v>80</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A36" s="2" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B36" s="2">
+        <v>40</v>
+      </c>
+      <c r="C36" s="2">
+        <v>55</v>
+      </c>
+      <c r="D36" s="2">
+        <v>80</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A37" s="2" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B37" s="2">
+        <v>40</v>
+      </c>
+      <c r="C37" s="2">
+        <v>55</v>
+      </c>
+      <c r="D37" s="2">
+        <v>80</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A38" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="B38" s="2">
+        <v>40</v>
+      </c>
+      <c r="C38" s="2">
+        <v>55</v>
+      </c>
+      <c r="D38" s="2">
+        <v>80</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A39" s="2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B39" s="2">
+        <v>40</v>
+      </c>
+      <c r="C39" s="2">
+        <v>60</v>
+      </c>
+      <c r="D39" s="2">
+        <v>90</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A40" s="2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B40" s="2">
+        <v>45</v>
+      </c>
+      <c r="C40" s="2">
+        <v>60</v>
+      </c>
+      <c r="D40" s="2">
+        <v>90</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A41" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B41" s="2">
+        <v>45</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0</v>
+      </c>
+      <c r="D41" s="2">
+        <v>90</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A42" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B42" s="2">
+        <v>45</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0</v>
+      </c>
+      <c r="D42" s="2">
+        <v>90</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A43" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B43" s="2">
+        <v>45</v>
+      </c>
+      <c r="C43" s="2">
+        <v>60</v>
+      </c>
+      <c r="D43" s="2">
+        <v>90</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A44" s="2" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B44" s="2">
+        <v>50</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0</v>
+      </c>
+      <c r="D44" s="2">
+        <v>100</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A45" s="2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B45" s="2">
+        <v>50</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0</v>
+      </c>
+      <c r="D45" s="2">
+        <v>100</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A46" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B46" s="2">
+        <v>55</v>
+      </c>
+      <c r="C46" s="2">
+        <v>70</v>
+      </c>
+      <c r="D46" s="2">
+        <v>105</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A47" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B47" s="2">
+        <v>55</v>
+      </c>
+      <c r="C47" s="2">
+        <v>70</v>
+      </c>
+      <c r="D47" s="2">
+        <v>105</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53694679-D547-4EFC-A6A8-859BE8A4804C}">
+  <dimension ref="A1:F82"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F82" sqref="A2:F82"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="15.5" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="14.36328125" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="11.36328125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>45</v>
+      </c>
+      <c r="D3" s="2">
+        <v>55</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>40</v>
+      </c>
+      <c r="D4" s="2">
+        <v>50</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>40</v>
+      </c>
+      <c r="D5" s="2">
+        <v>50</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>50</v>
+      </c>
+      <c r="D7" s="2">
+        <v>65</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>50</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>50</v>
+      </c>
+      <c r="D9" s="2">
+        <v>60</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>40</v>
+      </c>
+      <c r="D11" s="2">
+        <v>50</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>40</v>
+      </c>
+      <c r="D12" s="2">
+        <v>50</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
+        <v>40</v>
+      </c>
+      <c r="D13" s="2">
+        <v>50</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>40</v>
+      </c>
+      <c r="D14" s="2">
+        <v>50</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>45</v>
+      </c>
+      <c r="D15" s="2">
+        <v>50</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16" s="2" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>45</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A17" s="2" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
+        <v>45</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A18" s="2" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A19" s="2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2">
+        <v>40</v>
+      </c>
+      <c r="D19" s="2">
+        <v>40</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A20" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
+        <v>40</v>
+      </c>
+      <c r="D20" s="2">
+        <v>40</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A21" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2">
+        <v>40</v>
+      </c>
+      <c r="D21" s="2">
+        <v>40</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A22" s="2" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2">
+        <v>40</v>
+      </c>
+      <c r="D22" s="2">
+        <v>40</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A23" s="2" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2">
+        <v>35</v>
+      </c>
+      <c r="D23" s="2">
+        <v>35</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A24" s="2" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2">
+        <v>35</v>
+      </c>
+      <c r="D24" s="2">
+        <v>35</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A25" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A26" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2">
+        <v>25</v>
+      </c>
+      <c r="D26" s="2">
+        <v>30</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A27" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0</v>
+      </c>
+      <c r="C27" s="2">
+        <v>25</v>
+      </c>
+      <c r="D27" s="2">
+        <v>30</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A28" s="2" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0</v>
+      </c>
+      <c r="C28" s="2">
+        <v>25</v>
+      </c>
+      <c r="D28" s="2">
+        <v>30</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A29" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0</v>
+      </c>
+      <c r="C29" s="2">
+        <v>25</v>
+      </c>
+      <c r="D29" s="2">
+        <v>30</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0</v>
+      </c>
+      <c r="C30" s="2">
+        <v>20</v>
+      </c>
+      <c r="D30" s="2">
+        <v>25</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A31" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A32" s="2" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B32" s="2">
+        <v>50</v>
+      </c>
+      <c r="C32" s="2">
+        <v>50</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A33" s="2" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B33" s="2">
+        <v>50</v>
+      </c>
+      <c r="C33" s="2">
+        <v>50</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A34" s="2" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B34" s="2">
+        <v>45</v>
+      </c>
+      <c r="C34" s="2">
+        <v>45</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A35" s="2" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A36" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0</v>
+      </c>
+      <c r="C36" s="2">
+        <v>45</v>
+      </c>
+      <c r="D36" s="2">
+        <v>55</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A37" s="2" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B37" s="2">
+        <v>0</v>
+      </c>
+      <c r="C37" s="2">
+        <v>45</v>
+      </c>
+      <c r="D37" s="2">
+        <v>55</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A38" s="2" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0</v>
+      </c>
+      <c r="C38" s="2">
+        <v>30</v>
+      </c>
+      <c r="D38" s="2">
+        <v>40</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A39" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0</v>
+      </c>
+      <c r="C39" s="2">
+        <v>30</v>
+      </c>
+      <c r="D39" s="2">
+        <v>40</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A40" s="2" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0</v>
+      </c>
+      <c r="C40" s="2">
+        <v>40</v>
+      </c>
+      <c r="D40" s="2">
+        <v>55</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A41" s="2" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A42" s="2" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0</v>
+      </c>
+      <c r="C42" s="2">
+        <v>45</v>
+      </c>
+      <c r="D42" s="2">
+        <v>55</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A43" s="2" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B43" s="2">
+        <v>0</v>
+      </c>
+      <c r="C43" s="2">
+        <v>55</v>
+      </c>
+      <c r="D43" s="2">
+        <v>65</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A44" s="2" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B44" s="2">
+        <v>0</v>
+      </c>
+      <c r="C44" s="2">
+        <v>50</v>
+      </c>
+      <c r="D44" s="2">
+        <v>60</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A45" s="2" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A46" s="2" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B46" s="2">
+        <v>0</v>
+      </c>
+      <c r="C46" s="2">
+        <v>30</v>
+      </c>
+      <c r="D46" s="2">
+        <v>40</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A47" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B47" s="2">
+        <v>0</v>
+      </c>
+      <c r="C47" s="2">
+        <v>30</v>
+      </c>
+      <c r="D47" s="2">
+        <v>40</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A48" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B48" s="2">
+        <v>0</v>
+      </c>
+      <c r="C48" s="2">
+        <v>30</v>
+      </c>
+      <c r="D48" s="2">
+        <v>40</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A49" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B49" s="2">
+        <v>0</v>
+      </c>
+      <c r="C49" s="2">
+        <v>30</v>
+      </c>
+      <c r="D49" s="2">
+        <v>35</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A50" s="2" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B50" s="2">
+        <v>0</v>
+      </c>
+      <c r="C50" s="2">
+        <v>30</v>
+      </c>
+      <c r="D50" s="2">
+        <v>35</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A51" s="2" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B51" s="2">
+        <v>0</v>
+      </c>
+      <c r="C51" s="2">
+        <v>45</v>
+      </c>
+      <c r="D51" s="2">
+        <v>55</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A52" s="2" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B52" s="2">
+        <v>0</v>
+      </c>
+      <c r="C52" s="2">
+        <v>40</v>
+      </c>
+      <c r="D52" s="2">
+        <v>45</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A53" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="B53" s="2">
+        <v>0</v>
+      </c>
+      <c r="C53" s="2">
+        <v>35</v>
+      </c>
+      <c r="D53" s="2">
+        <v>40</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A54" s="2" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B54" s="2">
+        <v>0</v>
+      </c>
+      <c r="C54" s="2">
+        <v>35</v>
+      </c>
+      <c r="D54" s="2">
+        <v>40</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A55" s="2" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B55" s="2">
+        <v>0</v>
+      </c>
+      <c r="C55" s="2">
+        <v>30</v>
+      </c>
+      <c r="D55" s="2">
+        <v>35</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A56" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B56" s="2">
+        <v>0</v>
+      </c>
+      <c r="C56" s="2">
+        <v>35</v>
+      </c>
+      <c r="D56" s="2">
+        <v>45</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A57" s="2" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B57" s="2">
+        <v>0</v>
+      </c>
+      <c r="C57" s="2">
+        <v>40</v>
+      </c>
+      <c r="D57" s="2">
+        <v>50</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A58" s="2" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A59" s="2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B59" s="2">
+        <v>0</v>
+      </c>
+      <c r="C59" s="2">
+        <v>30</v>
+      </c>
+      <c r="D59" s="2">
+        <v>40</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A60" s="2" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B60" s="2">
+        <v>0</v>
+      </c>
+      <c r="C60" s="2">
+        <v>30</v>
+      </c>
+      <c r="D60" s="2">
+        <v>40</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A61" s="2" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B61" s="2">
+        <v>0</v>
+      </c>
+      <c r="C61" s="2">
+        <v>30</v>
+      </c>
+      <c r="D61" s="2">
+        <v>40</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A62" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B62" s="2">
+        <v>0</v>
+      </c>
+      <c r="C62" s="2">
+        <v>30</v>
+      </c>
+      <c r="D62" s="2">
+        <v>40</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A63" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="B63" s="2">
+        <v>0</v>
+      </c>
+      <c r="C63" s="2">
+        <v>35</v>
+      </c>
+      <c r="D63" s="2">
+        <v>45</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A64" s="2" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B64" s="2">
+        <v>0</v>
+      </c>
+      <c r="C64" s="2">
+        <v>35</v>
+      </c>
+      <c r="D64" s="2">
+        <v>45</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A65" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B65" s="2">
+        <v>0</v>
+      </c>
+      <c r="C65" s="2">
+        <v>35</v>
+      </c>
+      <c r="D65" s="2">
+        <v>45</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A66" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B66" s="2">
+        <v>0</v>
+      </c>
+      <c r="C66" s="2">
+        <v>35</v>
+      </c>
+      <c r="D66" s="2">
+        <v>45</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A67" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="B67" s="2">
+        <v>0</v>
+      </c>
+      <c r="C67" s="2">
+        <v>35</v>
+      </c>
+      <c r="D67" s="2">
+        <v>45</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A68" s="2" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B68" s="2">
+        <v>0</v>
+      </c>
+      <c r="C68" s="2">
+        <v>40</v>
+      </c>
+      <c r="D68" s="2">
+        <v>50</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A69" s="2" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B69" s="2">
+        <v>0</v>
+      </c>
+      <c r="C69" s="2">
+        <v>45</v>
+      </c>
+      <c r="D69" s="2">
+        <v>55</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A70" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A71" s="2" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B71" s="2">
+        <v>0</v>
+      </c>
+      <c r="C71" s="2">
+        <v>40</v>
+      </c>
+      <c r="D71" s="2">
+        <v>55</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A72" s="2" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B72" s="2">
+        <v>0</v>
+      </c>
+      <c r="C72" s="2">
+        <v>40</v>
+      </c>
+      <c r="D72" s="2">
+        <v>55</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A73" s="2" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B73" s="2">
+        <v>0</v>
+      </c>
+      <c r="C73" s="2">
+        <v>40</v>
+      </c>
+      <c r="D73" s="2">
+        <v>55</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A74" s="2" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B74" s="2">
+        <v>0</v>
+      </c>
+      <c r="C74" s="2">
+        <v>40</v>
+      </c>
+      <c r="D74" s="2">
+        <v>55</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A75" s="2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B75" s="2">
+        <v>0</v>
+      </c>
+      <c r="C75" s="2">
+        <v>45</v>
+      </c>
+      <c r="D75" s="2">
+        <v>60</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A76" s="2" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B76" s="2">
+        <v>0</v>
+      </c>
+      <c r="C76" s="2">
+        <v>45</v>
+      </c>
+      <c r="D76" s="2">
+        <v>60</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A77" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="B77" s="2">
+        <v>0</v>
+      </c>
+      <c r="C77" s="2">
+        <v>45</v>
+      </c>
+      <c r="D77" s="2">
+        <v>60</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A78" s="2" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B78" s="2">
+        <v>0</v>
+      </c>
+      <c r="C78" s="2">
+        <v>45</v>
+      </c>
+      <c r="D78" s="2">
+        <v>60</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A79" s="2" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B79" s="2">
+        <v>0</v>
+      </c>
+      <c r="C79" s="2">
+        <v>45</v>
+      </c>
+      <c r="D79" s="2">
+        <v>60</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A80" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="B80" s="2">
+        <v>0</v>
+      </c>
+      <c r="C80" s="2">
+        <v>50</v>
+      </c>
+      <c r="D80" s="2">
+        <v>60</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A81" s="2" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B81" s="2">
+        <v>0</v>
+      </c>
+      <c r="C81" s="2">
+        <v>50</v>
+      </c>
+      <c r="D81" s="2">
+        <v>60</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A82" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="B82" s="2">
+        <v>0</v>
+      </c>
+      <c r="C82" s="2">
+        <v>50</v>
+      </c>
+      <c r="D82" s="2">
+        <v>60</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85D67ADA-52D9-4DB9-8ED1-749337BEF659}">
+  <dimension ref="A1:F76"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F76"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="15.81640625" style="9" customWidth="1"/>
+    <col min="2" max="4" width="10.90625" style="9"/>
+    <col min="5" max="16384" width="10.90625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2" s="5" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" s="5" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>25</v>
+      </c>
+      <c r="D3" s="5">
+        <v>45</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" s="5" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>25</v>
+      </c>
+      <c r="D4" s="5">
+        <v>45</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" s="5" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>25</v>
+      </c>
+      <c r="D5" s="5">
+        <v>45</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>25</v>
+      </c>
+      <c r="D6" s="5">
+        <v>45</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>30</v>
+      </c>
+      <c r="D7" s="5">
+        <v>50</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>30</v>
+      </c>
+      <c r="D8" s="5">
+        <v>50</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" s="5" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5">
+        <v>35</v>
+      </c>
+      <c r="D9" s="5">
+        <v>55</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" s="5" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5">
+        <v>35</v>
+      </c>
+      <c r="D10" s="5">
+        <v>55</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11" s="5" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B11" s="5">
+        <v>40</v>
+      </c>
+      <c r="C11" s="5">
+        <v>45</v>
+      </c>
+      <c r="D11" s="5">
+        <v>65</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12" s="5" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B12" s="5">
+        <v>45</v>
+      </c>
+      <c r="C12" s="5">
+        <v>50</v>
+      </c>
+      <c r="D12" s="5">
+        <v>75</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13" s="5" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B13" s="5">
+        <v>45</v>
+      </c>
+      <c r="C13" s="5">
+        <v>50</v>
+      </c>
+      <c r="D13" s="5">
+        <v>75</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B14" s="5">
+        <v>40</v>
+      </c>
+      <c r="C14" s="5">
+        <v>45</v>
+      </c>
+      <c r="D14" s="5">
+        <v>70</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15" s="5" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B15" s="5">
+        <v>40</v>
+      </c>
+      <c r="C15" s="5">
+        <v>45</v>
+      </c>
+      <c r="D15" s="5">
+        <v>70</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B16" s="5">
+        <v>40</v>
+      </c>
+      <c r="C16" s="5">
+        <v>50</v>
+      </c>
+      <c r="D16" s="5">
+        <v>80</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A17" s="5" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A18" s="5" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B18" s="5">
+        <v>45</v>
+      </c>
+      <c r="C18" s="5">
+        <v>50</v>
+      </c>
+      <c r="D18" s="5">
+        <v>75</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A19" s="5" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B19" s="5">
+        <v>45</v>
+      </c>
+      <c r="C19" s="5">
+        <v>50</v>
+      </c>
+      <c r="D19" s="5">
+        <v>75</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A20" s="5" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B20" s="5">
+        <v>45</v>
+      </c>
+      <c r="C20" s="5">
+        <v>50</v>
+      </c>
+      <c r="D20" s="5">
+        <v>75</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="5">
+        <v>45</v>
+      </c>
+      <c r="C21" s="5">
+        <v>50</v>
+      </c>
+      <c r="D21" s="5">
+        <v>75</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="5">
+        <v>45</v>
+      </c>
+      <c r="C22" s="5">
+        <v>50</v>
+      </c>
+      <c r="D22" s="5">
+        <v>75</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="5">
+        <v>45</v>
+      </c>
+      <c r="C23" s="5">
+        <v>50</v>
+      </c>
+      <c r="D23" s="5">
+        <v>75</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A24" s="5" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B24" s="5">
+        <v>0</v>
+      </c>
+      <c r="C24" s="5">
+        <v>55</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A25" s="5" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B25" s="5">
+        <v>50</v>
+      </c>
+      <c r="C25" s="5">
+        <v>55</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A26" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="5">
+        <v>45</v>
+      </c>
+      <c r="C26" s="5">
+        <v>55</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A27" s="5" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A28" s="5" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B28" s="5">
+        <v>45</v>
+      </c>
+      <c r="C28" s="5">
+        <v>55</v>
+      </c>
+      <c r="D28" s="5">
+        <v>80</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A29" s="5" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B29" s="5">
+        <v>45</v>
+      </c>
+      <c r="C29" s="5">
+        <v>50</v>
+      </c>
+      <c r="D29" s="5">
+        <v>75</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A30" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="B30" s="5">
+        <v>0</v>
+      </c>
+      <c r="C30" s="5">
+        <v>45</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A31" s="5" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B31" s="5">
+        <v>0</v>
+      </c>
+      <c r="C31" s="5">
+        <v>50</v>
+      </c>
+      <c r="D31" s="5">
+        <v>0</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A32" s="5" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B32" s="5">
+        <v>0</v>
+      </c>
+      <c r="C32" s="5">
+        <v>50</v>
+      </c>
+      <c r="D32" s="5">
+        <v>0</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A33" s="5" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B33" s="5">
+        <v>0</v>
+      </c>
+      <c r="C33" s="5">
+        <v>55</v>
+      </c>
+      <c r="D33" s="5">
+        <v>0</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A34" s="5" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B34" s="5">
+        <v>0</v>
+      </c>
+      <c r="C34" s="5">
+        <v>55</v>
+      </c>
+      <c r="D34" s="5">
+        <v>0</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A35" s="5" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B35" s="5">
+        <v>0</v>
+      </c>
+      <c r="C35" s="5">
+        <v>50</v>
+      </c>
+      <c r="D35" s="5">
+        <v>0</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A36" s="5" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B36" s="5">
+        <v>0</v>
+      </c>
+      <c r="C36" s="5">
+        <v>45</v>
+      </c>
+      <c r="D36" s="5">
+        <v>70</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A37" s="5" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B37" s="5">
+        <v>0</v>
+      </c>
+      <c r="C37" s="5">
+        <v>45</v>
+      </c>
+      <c r="D37" s="5">
+        <v>70</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A38" s="5" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B38" s="5">
+        <v>40</v>
+      </c>
+      <c r="C38" s="5">
+        <v>45</v>
+      </c>
+      <c r="D38" s="5">
+        <v>75</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A39" s="5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B39" s="5">
+        <v>50</v>
+      </c>
+      <c r="C39" s="5">
+        <v>55</v>
+      </c>
+      <c r="D39" s="5">
+        <v>85</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A40" s="5" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B40" s="5">
+        <v>0</v>
+      </c>
+      <c r="C40" s="5">
+        <v>50</v>
+      </c>
+      <c r="D40" s="5">
+        <v>0</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A41" s="5" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B41" s="5">
+        <v>0</v>
+      </c>
+      <c r="C41" s="5">
+        <v>50</v>
+      </c>
+      <c r="D41" s="5">
+        <v>0</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A42" s="5" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A43" s="5" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B43" s="5">
+        <v>0</v>
+      </c>
+      <c r="C43" s="5">
+        <v>50</v>
+      </c>
+      <c r="D43" s="5">
+        <v>0</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A44" s="5" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B44" s="5">
+        <v>0</v>
+      </c>
+      <c r="C44" s="5">
+        <v>55</v>
+      </c>
+      <c r="D44" s="5">
+        <v>0</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A45" s="5" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B45" s="5">
+        <v>0</v>
+      </c>
+      <c r="C45" s="5">
+        <v>55</v>
+      </c>
+      <c r="D45" s="5">
+        <v>0</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A46" s="5" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B46" s="5">
+        <v>0</v>
+      </c>
+      <c r="C46" s="5">
+        <v>60</v>
+      </c>
+      <c r="D46" s="5">
+        <v>0</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A47" s="5" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A48" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B48" s="5">
+        <v>45</v>
+      </c>
+      <c r="C48" s="5">
+        <v>55</v>
+      </c>
+      <c r="D48" s="5">
+        <v>80</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A49" s="5" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B49" s="5">
+        <v>45</v>
+      </c>
+      <c r="C49" s="5">
+        <v>55</v>
+      </c>
+      <c r="D49" s="5">
+        <v>80</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A50" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="B50" s="5">
+        <v>45</v>
+      </c>
+      <c r="C50" s="5">
+        <v>55</v>
+      </c>
+      <c r="D50" s="5">
+        <v>80</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A51" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="B51" s="5">
+        <v>45</v>
+      </c>
+      <c r="C51" s="5">
+        <v>55</v>
+      </c>
+      <c r="D51" s="5">
+        <v>80</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A52" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="B52" s="5">
+        <v>45</v>
+      </c>
+      <c r="C52" s="5">
+        <v>55</v>
+      </c>
+      <c r="D52" s="5">
+        <v>80</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A53" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B53" s="5">
+        <v>45</v>
+      </c>
+      <c r="C53" s="5">
+        <v>55</v>
+      </c>
+      <c r="D53" s="5">
+        <v>0</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A54" s="5" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B54" s="5">
+        <v>55</v>
+      </c>
+      <c r="C54" s="5">
+        <v>60</v>
+      </c>
+      <c r="D54" s="5">
+        <v>0</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A55" s="5" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B55" s="5">
+        <v>50</v>
+      </c>
+      <c r="C55" s="5">
+        <v>60</v>
+      </c>
+      <c r="D55" s="5">
+        <v>0</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A56" s="5" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B56" s="5">
+        <v>0</v>
+      </c>
+      <c r="C56" s="5">
+        <v>65</v>
+      </c>
+      <c r="D56" s="5">
+        <v>0</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A57" s="5" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B57" s="5">
+        <v>0</v>
+      </c>
+      <c r="C57" s="5">
+        <v>60</v>
+      </c>
+      <c r="D57" s="5">
+        <v>0</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A58" s="5" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B58" s="5">
+        <v>0</v>
+      </c>
+      <c r="C58" s="5">
+        <v>65</v>
+      </c>
+      <c r="D58" s="5">
+        <v>0</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A59" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="B59" s="5">
+        <v>50</v>
+      </c>
+      <c r="C59" s="5">
+        <v>70</v>
+      </c>
+      <c r="D59" s="5">
+        <v>0</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A60" s="5" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A61" s="5" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B61" s="5">
+        <v>0</v>
+      </c>
+      <c r="C61" s="5">
+        <v>40</v>
+      </c>
+      <c r="D61" s="5">
+        <v>0</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A62" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="B62" s="5">
+        <v>45</v>
+      </c>
+      <c r="C62" s="5">
+        <v>50</v>
+      </c>
+      <c r="D62" s="5">
+        <v>0</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A63" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="B63" s="5">
+        <v>40</v>
+      </c>
+      <c r="C63" s="5">
+        <v>50</v>
+      </c>
+      <c r="D63" s="5">
+        <v>0</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A64" s="5" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B64" s="5">
+        <v>0</v>
+      </c>
+      <c r="C64" s="5">
+        <v>60</v>
+      </c>
+      <c r="D64" s="5">
+        <v>0</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A65" s="5" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B65" s="5">
+        <v>45</v>
+      </c>
+      <c r="C65" s="5">
+        <v>55</v>
+      </c>
+      <c r="D65" s="5">
+        <v>80</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A66" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B66" s="5">
+        <v>40</v>
+      </c>
+      <c r="C66" s="5">
+        <v>50</v>
+      </c>
+      <c r="D66" s="5">
+        <v>75</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A67" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B67" s="5">
+        <v>40</v>
+      </c>
+      <c r="C67" s="5">
+        <v>50</v>
+      </c>
+      <c r="D67" s="5">
+        <v>75</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A68" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="B68" s="5">
+        <v>40</v>
+      </c>
+      <c r="C68" s="5">
+        <v>50</v>
+      </c>
+      <c r="D68" s="5">
+        <v>75</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A69" s="5" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B69" s="5">
+        <v>40</v>
+      </c>
+      <c r="C69" s="5">
+        <v>50</v>
+      </c>
+      <c r="D69" s="5">
+        <v>75</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A70" s="5" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B70" s="5">
+        <v>40</v>
+      </c>
+      <c r="C70" s="5">
+        <v>50</v>
+      </c>
+      <c r="D70" s="5">
+        <v>75</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A71" s="5" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B71" s="5">
+        <v>40</v>
+      </c>
+      <c r="C71" s="5">
+        <v>50</v>
+      </c>
+      <c r="D71" s="5">
+        <v>75</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A72" s="5" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B72" s="5">
+        <v>50</v>
+      </c>
+      <c r="C72" s="5">
+        <v>60</v>
+      </c>
+      <c r="D72" s="5">
+        <v>85</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A73" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B73" s="5">
+        <v>50</v>
+      </c>
+      <c r="C73" s="5">
+        <v>60</v>
+      </c>
+      <c r="D73" s="5">
+        <v>90</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A74" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="B74" s="5">
+        <v>40</v>
+      </c>
+      <c r="C74" s="5">
+        <v>50</v>
+      </c>
+      <c r="D74" s="5">
+        <v>75</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A75" s="5" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B75" s="5">
+        <v>40</v>
+      </c>
+      <c r="C75" s="5">
+        <v>55</v>
+      </c>
+      <c r="D75" s="5">
+        <v>85</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A76" s="5" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B76" s="5">
+        <v>50</v>
+      </c>
+      <c r="C76" s="5">
+        <v>60</v>
+      </c>
+      <c r="D76" s="5">
+        <v>90</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="F76" s="5" t="s">
         <v>976</v>
       </c>
     </row>
